--- a/switch_mod/test_dat/gen_data_test.xlsx
+++ b/switch_mod/test_dat/gen_data_test.xlsx
@@ -1,17 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26004"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1580" yWindow="400" windowWidth="27200" windowHeight="15580" tabRatio="686"/>
+    <workbookView xWindow="1120" yWindow="820" windowWidth="27200" windowHeight="15580" tabRatio="686"/>
   </bookViews>
   <sheets>
     <sheet name="gen info" sheetId="1" r:id="rId1"/>
     <sheet name="gen costs" sheetId="2" r:id="rId2"/>
-    <sheet name="ccs info" sheetId="3" r:id="rId3"/>
-    <sheet name="storage info" sheetId="4" r:id="rId4"/>
-    <sheet name="gen_energy" sheetId="5" r:id="rId5"/>
+    <sheet name="ccs load" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -23,14 +21,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="50">
   <si>
     <t>generation_technology</t>
   </si>
   <si>
-    <t>g_dbid</t>
-  </si>
-  <si>
     <t>g_max_age</t>
   </si>
   <si>
@@ -55,9 +50,6 @@
     <t>g_is_flexible_baseload</t>
   </si>
   <si>
-    <t>g_is_dispatchable</t>
-  </si>
-  <si>
     <t>g_is_cogen</t>
   </si>
   <si>
@@ -136,24 +128,15 @@
     <t>g_storage_efficiency</t>
   </si>
   <si>
-    <t>g_max_store_rate</t>
-  </si>
-  <si>
     <t>NG_GT</t>
   </si>
   <si>
     <t>NG_GT_CAES_cavern</t>
   </si>
   <si>
-    <t>energy_source</t>
-  </si>
-  <si>
     <t>Coal</t>
   </si>
   <si>
-    <t>DistillateFuelOil</t>
-  </si>
-  <si>
     <t>FuelOil_GT</t>
   </si>
   <si>
@@ -173,6 +156,21 @@
   </si>
   <si>
     <t>Electricity</t>
+  </si>
+  <si>
+    <t>g_full_load_heat_rate</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>g_unit_size</t>
+  </si>
+  <si>
+    <t>g_energy_source</t>
+  </si>
+  <si>
+    <t>g_store_to_release_ratio</t>
   </si>
 </sst>
 </file>
@@ -228,8 +226,138 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="303">
+  <cellStyleXfs count="433">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -539,7 +667,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="303">
+  <cellStyles count="433">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -691,6 +819,71 @@
     <cellStyle name="Followed Hyperlink" xfId="298" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="300" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="302" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="304" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="306" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="308" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="310" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="312" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="314" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="316" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="318" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="320" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="322" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="324" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="326" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="328" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="330" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="332" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="334" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="336" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="338" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="340" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="342" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="344" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="346" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="348" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="350" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="352" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="354" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="356" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="358" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="360" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="362" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="364" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="366" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="368" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="370" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="372" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="374" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="376" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="378" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="380" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="382" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="384" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="386" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="388" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="390" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="392" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="394" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="396" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="398" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="400" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="402" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="404" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="406" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="408" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="410" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="412" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="414" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="416" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="418" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="420" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="422" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="424" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="426" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="428" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="430" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="432" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -842,6 +1035,71 @@
     <cellStyle name="Hyperlink" xfId="297" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="299" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="301" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="303" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="305" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="307" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="309" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="311" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="313" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="315" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="317" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="319" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="321" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="323" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="325" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="327" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="329" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="331" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="333" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="335" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="337" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="339" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="341" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="343" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="345" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="347" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="349" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="351" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="353" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="355" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="357" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="359" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="361" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="363" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="365" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="367" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="369" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="371" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="373" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="375" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="377" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="379" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="381" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="383" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="385" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="387" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="389" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="391" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="393" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="395" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="397" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="399" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="401" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="403" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="405" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="407" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="409" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="411" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="413" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="415" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="417" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="419" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="421" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="423" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="425" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="427" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="429" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="431" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1171,874 +1429,1280 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N49"/>
+  <dimension ref="A1:S51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="K35" sqref="K35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="32.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="10.83203125" style="2"/>
+    <col min="2" max="2" width="10.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="10.83203125" style="2"/>
+    <col min="15" max="15" width="18.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:19">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2">
+        <v>10</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0.02</v>
+      </c>
+      <c r="E2">
+        <v>5.4999999999999997E-3</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2" t="s">
+        <v>44</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="R2" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="S2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3">
+        <v>40</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0.09</v>
+      </c>
+      <c r="E3">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>13.95</v>
+      </c>
+      <c r="M3" t="s">
+        <v>42</v>
+      </c>
+      <c r="N3">
+        <v>12.5</v>
+      </c>
+      <c r="O3" t="s">
+        <v>46</v>
+      </c>
+      <c r="P3" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>46</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4">
+        <v>40</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0.09</v>
+      </c>
+      <c r="E4">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>20.130700000000001</v>
+      </c>
+      <c r="M4" t="s">
+        <v>42</v>
+      </c>
+      <c r="N4">
+        <v>16.320799999999998</v>
+      </c>
+      <c r="O4" t="s">
+        <v>46</v>
+      </c>
+      <c r="P4" s="2">
+        <v>0.85</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>0.234115557</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5">
+        <v>20</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0.02</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5" t="s">
+        <v>43</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="S5" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6">
+        <v>40</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0.08</v>
+      </c>
+      <c r="E6">
+        <v>0.12</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>6.0822000000000003</v>
+      </c>
+      <c r="M6" t="s">
+        <v>37</v>
+      </c>
+      <c r="N6">
+        <v>7.95</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="S6" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7">
+        <v>40</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0.08</v>
+      </c>
+      <c r="E7">
+        <v>0.12</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>9.8580000000000005</v>
+      </c>
+      <c r="M7" t="s">
+        <v>37</v>
+      </c>
+      <c r="N7">
+        <v>10.38</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="P7" s="2">
+        <v>0.85</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>0.23410404600000001</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="S7" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
+      <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8">
+        <v>40</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0.06</v>
+      </c>
+      <c r="E8">
+        <v>0.1</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8" t="s">
+        <v>46</v>
+      </c>
+      <c r="M8" t="s">
+        <v>37</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="R8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="S8" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9">
+        <v>20</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0.02</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9" t="s">
+        <v>43</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="R9" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="S9" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
+      <c r="A10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="2">
+        <v>20</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0</v>
+      </c>
+      <c r="D10" s="3">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="E10" s="3">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0</v>
+      </c>
+      <c r="I10" s="2">
+        <v>0</v>
+      </c>
+      <c r="J10" s="2">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10" s="2">
+        <v>27.806999999999999</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="N10" s="2">
+        <v>12.5</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q10" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="R10" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="S10" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
+      <c r="A11" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s">
+      <c r="B11">
+        <v>30</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="E11">
+        <v>2.41E-2</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>28.83</v>
+      </c>
+      <c r="M11" t="s">
+        <v>11</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="P11" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q11" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="R11" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="S11" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
+      <c r="A12" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
-      <c r="A2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="2">
+      <c r="B12">
+        <v>20</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0.04</v>
+      </c>
+      <c r="E12">
+        <v>0.06</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>3.4131</v>
+      </c>
+      <c r="M12" t="s">
+        <v>40</v>
+      </c>
+      <c r="N12">
+        <v>6.7050000000000001</v>
+      </c>
+      <c r="O12" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="P12" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q12" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="R12" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="S12" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
+      <c r="A13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13">
+        <v>20</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0.04</v>
+      </c>
+      <c r="E13">
+        <v>0.06</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="M13" t="s">
+        <v>40</v>
+      </c>
+      <c r="N13">
+        <v>10.08</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="P13" s="2">
+        <v>0.85</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>0.334821429</v>
+      </c>
+      <c r="R13" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="S13" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
+      <c r="A14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14">
+        <v>20</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0.04</v>
+      </c>
+      <c r="E14">
+        <v>0.06</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>27.806999999999999</v>
+      </c>
+      <c r="M14" t="s">
+        <v>40</v>
+      </c>
+      <c r="N14">
+        <v>10.39</v>
+      </c>
+      <c r="O14" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="P14" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q14" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="R14" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="S14" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
+      <c r="A15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15">
+        <v>30</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0.03</v>
+      </c>
+      <c r="E15">
+        <v>0.04</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>1.4415</v>
+      </c>
+      <c r="M15" t="s">
+        <v>40</v>
+      </c>
+      <c r="N15">
+        <v>10.39</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="P15" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q15" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="R15" s="2">
+        <v>0.81699999999999995</v>
+      </c>
+      <c r="S15" s="2">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
+      <c r="A16" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="2">
+      <c r="B16">
+        <v>40</v>
+      </c>
+      <c r="C16">
+        <v>1000</v>
+      </c>
+      <c r="D16">
+        <v>0.04</v>
+      </c>
+      <c r="E16">
+        <v>0.06</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16" t="s">
+        <v>41</v>
+      </c>
+      <c r="N16">
+        <v>9.7200000000000006</v>
+      </c>
+      <c r="O16" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="P16" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q16" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="R16" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="S16" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17">
+        <v>20</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0.02</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17" t="s">
+        <v>43</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="O17" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="P17" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q17" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="R17" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="S17" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18">
         <v>30</v>
       </c>
-      <c r="D2" s="2">
-        <v>0</v>
-      </c>
-      <c r="E2" s="3">
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="F2" s="3">
-        <v>2.41E-2</v>
-      </c>
-      <c r="G2" s="2">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0.05</v>
+      </c>
+      <c r="E18">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="F18">
         <v>1</v>
       </c>
-      <c r="H2" s="2">
-        <v>0</v>
-      </c>
-      <c r="I2" s="2">
+      <c r="G18">
         <v>1</v>
       </c>
-      <c r="J2" s="2">
-        <v>0</v>
-      </c>
-      <c r="K2" s="2">
-        <v>0</v>
-      </c>
-      <c r="L2" s="2">
-        <v>0</v>
-      </c>
-      <c r="M2" s="2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>28.83</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
-      <c r="A3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="3">
-        <v>11</v>
-      </c>
-      <c r="C3" s="2">
-        <v>40</v>
-      </c>
-      <c r="D3" s="2">
-        <v>0</v>
-      </c>
-      <c r="E3" s="2">
-        <v>0.08</v>
-      </c>
-      <c r="F3" s="2">
-        <v>0.12</v>
-      </c>
-      <c r="G3" s="2">
-        <v>0</v>
-      </c>
-      <c r="H3" s="2">
-        <v>0</v>
-      </c>
-      <c r="I3" s="2">
-        <v>0</v>
-      </c>
-      <c r="J3" s="2">
-        <v>1</v>
-      </c>
-      <c r="K3" s="2">
-        <v>0</v>
-      </c>
-      <c r="L3" s="2">
-        <v>0</v>
-      </c>
-      <c r="M3" s="2">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>6.0822000000000003</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
-      <c r="A4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="2">
-        <v>38</v>
-      </c>
-      <c r="C4" s="2">
-        <v>40</v>
-      </c>
-      <c r="D4" s="2">
-        <v>0</v>
-      </c>
-      <c r="E4" s="2">
-        <v>0.08</v>
-      </c>
-      <c r="F4" s="2">
-        <v>0.12</v>
-      </c>
-      <c r="G4" s="2">
-        <v>0</v>
-      </c>
-      <c r="H4" s="2">
-        <v>0</v>
-      </c>
-      <c r="I4" s="2">
-        <v>0</v>
-      </c>
-      <c r="J4" s="2">
-        <v>1</v>
-      </c>
-      <c r="K4" s="2">
-        <v>0</v>
-      </c>
-      <c r="L4" s="2">
-        <v>0</v>
-      </c>
-      <c r="M4" s="2">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>9.8580000000000005</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
-      <c r="A5" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="3">
-        <v>12</v>
-      </c>
-      <c r="C5" s="2">
-        <v>40</v>
-      </c>
-      <c r="D5" s="2">
-        <v>0</v>
-      </c>
-      <c r="E5" s="2">
-        <v>0.06</v>
-      </c>
-      <c r="F5" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="G5" s="2">
-        <v>0</v>
-      </c>
-      <c r="H5" s="2">
-        <v>0</v>
-      </c>
-      <c r="I5" s="2">
-        <v>0</v>
-      </c>
-      <c r="J5" s="2">
-        <v>1</v>
-      </c>
-      <c r="K5" s="2">
-        <v>0</v>
-      </c>
-      <c r="L5" s="2">
-        <v>0</v>
-      </c>
-      <c r="M5" s="2">
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <v>3.4502999999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
-      <c r="A6" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B6" s="2">
-        <v>60</v>
-      </c>
-      <c r="C6" s="2">
-        <v>20</v>
-      </c>
-      <c r="D6" s="2">
-        <v>0</v>
-      </c>
-      <c r="E6" s="3">
-        <v>0.25</v>
-      </c>
-      <c r="F6" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="G6" s="2">
-        <v>0</v>
-      </c>
-      <c r="H6" s="2">
-        <v>0</v>
-      </c>
-      <c r="I6" s="2">
-        <v>0</v>
-      </c>
-      <c r="J6" s="2">
-        <v>0</v>
-      </c>
-      <c r="K6" s="2">
-        <v>1</v>
-      </c>
-      <c r="L6" s="2">
-        <v>0</v>
-      </c>
-      <c r="M6" s="2">
-        <v>0</v>
-      </c>
-      <c r="N6" s="2">
-        <v>27.806999999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
-      <c r="A7" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" s="2">
-        <v>1</v>
-      </c>
-      <c r="C7" s="2">
-        <v>20</v>
-      </c>
-      <c r="D7" s="2">
-        <v>0</v>
-      </c>
-      <c r="E7" s="3">
-        <v>0.04</v>
-      </c>
-      <c r="F7" s="3">
-        <v>0.06</v>
-      </c>
-      <c r="G7" s="3">
-        <v>0</v>
-      </c>
-      <c r="H7" s="3">
-        <v>0</v>
-      </c>
-      <c r="I7" s="3">
-        <v>0</v>
-      </c>
-      <c r="J7" s="3">
-        <v>0</v>
-      </c>
-      <c r="K7" s="3">
-        <v>1</v>
-      </c>
-      <c r="L7" s="3">
-        <v>0</v>
-      </c>
-      <c r="M7" s="3">
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <v>3.4131</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
-      <c r="A8" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" s="2">
-        <v>34</v>
-      </c>
-      <c r="C8" s="2">
-        <v>20</v>
-      </c>
-      <c r="D8" s="2">
-        <v>0</v>
-      </c>
-      <c r="E8" s="3">
-        <v>0.04</v>
-      </c>
-      <c r="F8" s="3">
-        <v>0.06</v>
-      </c>
-      <c r="G8" s="3">
-        <v>0</v>
-      </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
-      <c r="I8" s="3">
-        <v>0</v>
-      </c>
-      <c r="J8" s="3">
-        <v>0</v>
-      </c>
-      <c r="K8" s="3">
-        <v>1</v>
-      </c>
-      <c r="L8" s="3">
-        <v>0</v>
-      </c>
-      <c r="M8" s="3">
-        <v>0</v>
-      </c>
-      <c r="N8">
-        <v>9.3000000000000007</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
-      <c r="A9" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B9" s="2">
-        <v>2</v>
-      </c>
-      <c r="C9" s="2">
-        <v>20</v>
-      </c>
-      <c r="D9" s="2">
-        <v>0</v>
-      </c>
-      <c r="E9" s="3">
-        <v>0.04</v>
-      </c>
-      <c r="F9" s="3">
-        <v>0.06</v>
-      </c>
-      <c r="G9" s="3">
-        <v>0</v>
-      </c>
-      <c r="H9" s="3">
-        <v>0</v>
-      </c>
-      <c r="I9" s="3">
-        <v>0</v>
-      </c>
-      <c r="J9" s="3">
-        <v>0</v>
-      </c>
-      <c r="K9" s="3">
-        <v>1</v>
-      </c>
-      <c r="L9" s="3">
-        <v>0</v>
-      </c>
-      <c r="M9" s="3">
-        <v>0</v>
-      </c>
-      <c r="N9">
-        <v>27.806999999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
-      <c r="A10" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="2">
-        <v>13</v>
-      </c>
-      <c r="C10" s="2">
-        <v>40</v>
-      </c>
-      <c r="D10" s="2">
-        <v>1000</v>
-      </c>
-      <c r="E10" s="3">
-        <v>0.04</v>
-      </c>
-      <c r="F10" s="3">
-        <v>0.06</v>
-      </c>
-      <c r="G10" s="2">
-        <v>0</v>
-      </c>
-      <c r="H10" s="2">
-        <v>0</v>
-      </c>
-      <c r="I10" s="2">
-        <v>1</v>
-      </c>
-      <c r="J10" s="2">
-        <v>0</v>
-      </c>
-      <c r="K10" s="2">
-        <v>0</v>
-      </c>
-      <c r="L10" s="2">
-        <v>0</v>
-      </c>
-      <c r="M10" s="2">
-        <v>0</v>
-      </c>
-      <c r="N10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
-      <c r="A11" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="2">
-        <v>10</v>
-      </c>
-      <c r="C11" s="2">
-        <v>40</v>
-      </c>
-      <c r="D11" s="2">
-        <v>0</v>
-      </c>
-      <c r="E11" s="3">
-        <v>0.09</v>
-      </c>
-      <c r="F11" s="3">
-        <v>7.5999999999999998E-2</v>
-      </c>
-      <c r="G11" s="2">
-        <v>0</v>
-      </c>
-      <c r="H11" s="2">
-        <v>0</v>
-      </c>
-      <c r="I11" s="2">
-        <v>1</v>
-      </c>
-      <c r="J11" s="2">
-        <v>0</v>
-      </c>
-      <c r="K11" s="2">
-        <v>0</v>
-      </c>
-      <c r="L11" s="2">
-        <v>0</v>
-      </c>
-      <c r="M11" s="2">
-        <v>0</v>
-      </c>
-      <c r="N11">
-        <v>13.95</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
-      <c r="A12" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="2">
-        <v>37</v>
-      </c>
-      <c r="C12" s="2">
-        <v>40</v>
-      </c>
-      <c r="D12" s="2">
-        <v>0</v>
-      </c>
-      <c r="E12" s="2">
-        <v>0.09</v>
-      </c>
-      <c r="F12" s="2">
-        <v>7.5999999999999998E-2</v>
-      </c>
-      <c r="G12" s="2">
-        <v>0</v>
-      </c>
-      <c r="H12" s="2">
-        <v>0</v>
-      </c>
-      <c r="I12" s="2">
-        <v>1</v>
-      </c>
-      <c r="J12" s="2">
-        <v>0</v>
-      </c>
-      <c r="K12" s="2">
-        <v>0</v>
-      </c>
-      <c r="L12" s="2">
-        <v>0</v>
-      </c>
-      <c r="M12" s="2">
-        <v>0</v>
-      </c>
-      <c r="N12">
-        <v>20.130700000000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
-      <c r="A13" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="2">
-        <v>6</v>
-      </c>
-      <c r="C13" s="2">
-        <v>20</v>
-      </c>
-      <c r="D13" s="2">
-        <v>0</v>
-      </c>
-      <c r="E13" s="2">
-        <v>0</v>
-      </c>
-      <c r="F13" s="2">
-        <v>0.02</v>
-      </c>
-      <c r="G13" s="2">
-        <v>1</v>
-      </c>
-      <c r="H13" s="2">
-        <v>1</v>
-      </c>
-      <c r="I13" s="3">
-        <v>0</v>
-      </c>
-      <c r="J13" s="3">
-        <v>0</v>
-      </c>
-      <c r="K13" s="3">
-        <v>0</v>
-      </c>
-      <c r="L13" s="3">
-        <v>0</v>
-      </c>
-      <c r="M13" s="3">
-        <v>1</v>
-      </c>
-      <c r="N13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
-      <c r="A14" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="2">
-        <v>25</v>
-      </c>
-      <c r="C14" s="2">
-        <v>20</v>
-      </c>
-      <c r="D14" s="2">
-        <v>0</v>
-      </c>
-      <c r="E14" s="2">
-        <v>0</v>
-      </c>
-      <c r="F14" s="2">
-        <v>0.02</v>
-      </c>
-      <c r="G14" s="2">
-        <v>1</v>
-      </c>
-      <c r="H14" s="2">
-        <v>1</v>
-      </c>
-      <c r="I14" s="2">
-        <v>0</v>
-      </c>
-      <c r="J14" s="2">
-        <v>0</v>
-      </c>
-      <c r="K14" s="2">
-        <v>0</v>
-      </c>
-      <c r="L14" s="2">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3">
-        <v>1</v>
-      </c>
-      <c r="N14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
-      <c r="A15" s="2" t="s">
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="2">
-        <v>26</v>
-      </c>
-      <c r="C15" s="2">
-        <v>20</v>
-      </c>
-      <c r="D15" s="2">
-        <v>0</v>
-      </c>
-      <c r="E15" s="2">
-        <v>0</v>
-      </c>
-      <c r="F15" s="2">
-        <v>0.02</v>
-      </c>
-      <c r="G15" s="2">
-        <v>1</v>
-      </c>
-      <c r="H15" s="2">
-        <v>1</v>
-      </c>
-      <c r="I15" s="2">
-        <v>0</v>
-      </c>
-      <c r="J15" s="2">
-        <v>0</v>
-      </c>
-      <c r="K15" s="2">
-        <v>0</v>
-      </c>
-      <c r="L15" s="2">
-        <v>0</v>
-      </c>
-      <c r="M15" s="2">
-        <v>1</v>
-      </c>
-      <c r="N15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
-      <c r="A16" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" s="2">
-        <v>4</v>
-      </c>
-      <c r="C16" s="2">
-        <v>30</v>
-      </c>
-      <c r="D16" s="2">
-        <v>0</v>
-      </c>
-      <c r="E16" s="2">
-        <v>0.05</v>
-      </c>
-      <c r="F16" s="2">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="G16" s="2">
-        <v>1</v>
-      </c>
-      <c r="H16" s="2">
-        <v>1</v>
-      </c>
-      <c r="I16" s="2">
-        <v>0</v>
-      </c>
-      <c r="J16" s="2">
-        <v>0</v>
-      </c>
-      <c r="K16" s="2">
-        <v>0</v>
-      </c>
-      <c r="L16" s="2">
-        <v>0</v>
-      </c>
-      <c r="M16" s="2">
-        <v>0</v>
-      </c>
-      <c r="N16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
-      <c r="A17" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B17" s="2">
-        <v>28</v>
-      </c>
-      <c r="C17" s="2">
-        <v>30</v>
-      </c>
-      <c r="D17" s="2">
-        <v>0</v>
-      </c>
-      <c r="E17" s="3">
-        <v>0.03</v>
-      </c>
-      <c r="F17" s="3">
-        <v>0.04</v>
-      </c>
-      <c r="G17" s="2">
-        <v>0</v>
-      </c>
-      <c r="H17" s="2">
-        <v>0</v>
-      </c>
-      <c r="I17" s="2">
-        <v>0</v>
-      </c>
-      <c r="J17" s="2">
-        <v>0</v>
-      </c>
-      <c r="K17" s="2">
-        <v>1</v>
-      </c>
-      <c r="L17" s="2">
-        <v>0</v>
-      </c>
-      <c r="M17" s="2">
-        <v>0</v>
-      </c>
-      <c r="N17">
-        <v>1.4415</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
-      <c r="A18" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" s="2">
-        <v>33</v>
-      </c>
-      <c r="C18" s="2">
-        <v>10</v>
-      </c>
-      <c r="D18" s="2">
-        <v>0</v>
-      </c>
-      <c r="E18" s="3">
-        <v>0.02</v>
-      </c>
-      <c r="F18" s="3">
-        <v>5.4999999999999997E-3</v>
-      </c>
-      <c r="G18" s="2">
-        <v>0</v>
-      </c>
-      <c r="H18" s="2">
-        <v>0</v>
-      </c>
-      <c r="I18" s="2">
-        <v>0</v>
-      </c>
-      <c r="J18" s="2">
-        <v>0</v>
-      </c>
-      <c r="K18" s="2">
-        <v>1</v>
-      </c>
-      <c r="L18" s="2">
-        <v>0</v>
-      </c>
-      <c r="M18" s="2">
-        <v>0</v>
-      </c>
-      <c r="N18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
-      <c r="A25" s="3"/>
-    </row>
-    <row r="26" spans="1:14">
+      <c r="N18" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="O18" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="P18" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q18" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="R18" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="S18" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
+      <c r="A20"/>
+      <c r="B20"/>
+      <c r="C20"/>
+      <c r="D20"/>
+      <c r="E20"/>
+      <c r="F20"/>
+      <c r="G20"/>
+      <c r="H20"/>
+      <c r="I20"/>
+      <c r="J20"/>
+      <c r="K20"/>
+      <c r="L20"/>
+    </row>
+    <row r="21" spans="1:19">
+      <c r="A21"/>
+      <c r="B21"/>
+      <c r="C21"/>
+      <c r="D21"/>
+      <c r="E21"/>
+      <c r="F21"/>
+      <c r="G21"/>
+      <c r="H21"/>
+      <c r="I21"/>
+      <c r="J21"/>
+      <c r="K21"/>
+      <c r="L21"/>
+      <c r="M21"/>
+    </row>
+    <row r="22" spans="1:19">
+      <c r="A22"/>
+      <c r="B22"/>
+      <c r="C22"/>
+      <c r="D22"/>
+      <c r="E22"/>
+      <c r="F22"/>
+      <c r="G22"/>
+      <c r="H22"/>
+      <c r="I22"/>
+      <c r="J22"/>
+      <c r="K22"/>
+      <c r="L22"/>
+      <c r="M22"/>
+      <c r="N22"/>
+    </row>
+    <row r="23" spans="1:19">
+      <c r="A23"/>
+      <c r="B23"/>
+      <c r="C23"/>
+      <c r="D23"/>
+      <c r="E23"/>
+      <c r="F23"/>
+      <c r="G23"/>
+      <c r="H23"/>
+      <c r="I23"/>
+      <c r="J23"/>
+      <c r="K23"/>
+      <c r="L23"/>
+      <c r="M23"/>
+      <c r="N23"/>
+    </row>
+    <row r="24" spans="1:19">
+      <c r="A24"/>
+      <c r="B24"/>
+      <c r="C24"/>
+      <c r="D24"/>
+      <c r="E24"/>
+      <c r="F24"/>
+      <c r="G24"/>
+      <c r="H24"/>
+      <c r="I24"/>
+      <c r="J24"/>
+      <c r="K24"/>
+      <c r="L24"/>
+      <c r="M24"/>
+    </row>
+    <row r="25" spans="1:19">
+      <c r="A25"/>
+      <c r="B25"/>
+      <c r="C25"/>
+      <c r="D25"/>
+      <c r="E25"/>
+      <c r="F25"/>
+      <c r="G25"/>
+      <c r="H25"/>
+      <c r="I25"/>
+      <c r="J25"/>
+      <c r="K25"/>
+      <c r="L25"/>
+      <c r="M25"/>
+      <c r="N25"/>
+      <c r="O25"/>
+    </row>
+    <row r="26" spans="1:19">
       <c r="A26"/>
-    </row>
-    <row r="32" spans="1:14">
-      <c r="A32"/>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33"/>
-    </row>
-    <row r="34" spans="1:2">
+      <c r="B26"/>
+      <c r="C26"/>
+      <c r="D26"/>
+      <c r="E26"/>
+      <c r="F26"/>
+      <c r="G26"/>
+      <c r="H26"/>
+      <c r="I26"/>
+      <c r="J26"/>
+      <c r="K26"/>
+      <c r="L26"/>
+      <c r="M26"/>
+    </row>
+    <row r="27" spans="1:19">
+      <c r="A27"/>
+      <c r="B27"/>
+      <c r="C27"/>
+      <c r="D27"/>
+      <c r="E27"/>
+      <c r="F27"/>
+      <c r="G27"/>
+      <c r="H27"/>
+      <c r="I27"/>
+      <c r="J27"/>
+      <c r="K27"/>
+      <c r="L27"/>
+      <c r="M27"/>
+    </row>
+    <row r="28" spans="1:19">
+      <c r="A28"/>
+      <c r="B28"/>
+      <c r="C28"/>
+      <c r="D28"/>
+      <c r="E28"/>
+      <c r="F28"/>
+      <c r="G28"/>
+      <c r="H28"/>
+      <c r="I28"/>
+      <c r="J28"/>
+      <c r="K28"/>
+      <c r="L28"/>
+      <c r="M28"/>
+    </row>
+    <row r="31" spans="1:19">
+      <c r="Q31"/>
+      <c r="R31"/>
+    </row>
+    <row r="34" spans="1:1">
       <c r="A34"/>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:1">
       <c r="A35"/>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:1">
       <c r="A36"/>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:1">
       <c r="A37"/>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:1">
       <c r="A38"/>
     </row>
-    <row r="39" spans="1:2">
-      <c r="A39" s="1"/>
-      <c r="B39"/>
-    </row>
-    <row r="41" spans="1:2">
+    <row r="39" spans="1:1">
+      <c r="A39"/>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40"/>
+    </row>
+    <row r="41" spans="1:1">
       <c r="A41" s="1"/>
-      <c r="B41"/>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43"/>
-      <c r="B43"/>
-    </row>
-    <row r="45" spans="1:2">
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="1"/>
+    </row>
+    <row r="45" spans="1:1">
       <c r="A45"/>
-      <c r="B45"/>
-    </row>
-    <row r="47" spans="1:2">
+    </row>
+    <row r="47" spans="1:1">
       <c r="A47"/>
-      <c r="B47"/>
-    </row>
-    <row r="49" spans="1:2">
+    </row>
+    <row r="49" spans="1:1">
       <c r="A49"/>
-      <c r="B49"/>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51"/>
     </row>
   </sheetData>
+  <sortState ref="A2:P18">
+    <sortCondition ref="A2:A18"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
@@ -2071,21 +2735,21 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" t="s">
         <v>25</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>26</v>
-      </c>
-      <c r="D1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B2">
         <v>2020</v>
@@ -2102,7 +2766,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>2030</v>
@@ -2119,7 +2783,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B4">
         <v>2020</v>
@@ -2136,7 +2800,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>2030</v>
@@ -2153,7 +2817,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B6">
         <v>2030</v>
@@ -2170,7 +2834,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B7">
         <v>2020</v>
@@ -2187,7 +2851,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B8">
         <v>2030</v>
@@ -2204,7 +2868,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B9">
         <v>2030</v>
@@ -2221,7 +2885,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B10">
         <v>2020</v>
@@ -2238,7 +2902,7 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B11">
         <v>2030</v>
@@ -2255,7 +2919,7 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B12">
         <v>2030</v>
@@ -2272,7 +2936,7 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B13">
         <v>2020</v>
@@ -2289,7 +2953,7 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B14">
         <v>2030</v>
@@ -2306,7 +2970,7 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>2030</v>
@@ -2323,7 +2987,7 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B16">
         <v>2020</v>
@@ -2340,7 +3004,7 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>2030</v>
@@ -2357,7 +3021,7 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B18">
         <v>2020</v>
@@ -2374,7 +3038,7 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B19">
         <v>2030</v>
@@ -2391,7 +3055,7 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B20">
         <v>2020</v>
@@ -2408,7 +3072,7 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B21">
         <v>2030</v>
@@ -2425,7 +3089,7 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B22">
         <v>2020</v>
@@ -2442,7 +3106,7 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B23">
         <v>2030</v>
@@ -2459,7 +3123,7 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B24">
         <v>2020</v>
@@ -2476,7 +3140,7 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B25">
         <v>2030</v>
@@ -2493,7 +3157,7 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B26">
         <v>2020</v>
@@ -2510,7 +3174,7 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B27">
         <v>2030</v>
@@ -2556,15 +3220,15 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B2">
         <v>0.85</v>
@@ -2575,7 +3239,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B3">
         <v>0.85</v>
@@ -2586,7 +3250,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B4">
         <v>0.85</v>
@@ -2597,12 +3261,12 @@
     </row>
     <row r="13" spans="1:3">
       <c r="B13" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B14">
         <v>10.08</v>
@@ -2610,7 +3274,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B15">
         <v>6.7050000000000001</v>
@@ -2622,7 +3286,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B16">
         <v>16.321000000000002</v>
@@ -2630,7 +3294,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B17">
         <v>12.5</v>
@@ -2642,7 +3306,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B18">
         <v>10.38</v>
@@ -2650,7 +3314,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B19">
         <v>7.95</v>
@@ -2658,242 +3322,6 @@
       <c r="C19">
         <f>1-B19/B18</f>
         <v>0.23410404624277459</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="1" max="1" width="20.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.1640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B2" s="2">
-        <v>0.81699999999999995</v>
-      </c>
-      <c r="C2" s="2">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="C3" s="2">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="A1:B19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="1" max="1" width="20.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B18" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" t="s">
-        <v>49</v>
       </c>
     </row>
   </sheetData>
